--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>don’t know what he wants in his life</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +87,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,12 +349,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>111111111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>546666666</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>208063511</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43401</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2996F7D-2778-44A5-88F3-C6EAAF6AF2B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>David</t>
   </si>
@@ -31,12 +32,27 @@
   </si>
   <si>
     <t>don’t know what he wants in his life</t>
+  </si>
+  <si>
+    <t>0546666666</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>dds</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,19 +365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -374,23 +391,102 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>546666666</v>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>208063511</v>
       </c>
       <c r="G1" s="1">
         <v>43401</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>112323233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>208063511</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43401</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>412232131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>208063511</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43401</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>123213123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>208063511</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43401</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2996F7D-2778-44A5-88F3-C6EAAF6AF2B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA99D1EA-AB1D-4EE1-9CD3-8B48FE2F386E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>David</t>
   </si>
@@ -47,6 +48,21 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>IdOfOwner</t>
+  </si>
+  <si>
+    <t>LineNum</t>
+  </si>
+  <si>
+    <t>PackageType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
   </si>
 </sst>
 </file>
@@ -368,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,4 +505,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986FECF-798E-4561-808A-5180F951D82D}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016BB9C-B367-4B08-A7BF-85A787253DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2F93C-3AF1-49CB-BA1F-83C86DF5AE27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="594">
   <si>
     <t>085083772</t>
   </si>
@@ -1494,6 +1494,315 @@
   </si>
   <si>
     <t>Chukwuemeka_Sagar@Cmail.com</t>
+  </si>
+  <si>
+    <t>0514772918</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0547133695</t>
+  </si>
+  <si>
+    <t>0514480654</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0503488528</t>
+  </si>
+  <si>
+    <t>0582460013</t>
+  </si>
+  <si>
+    <t>0553797404</t>
+  </si>
+  <si>
+    <t>0521604320</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0529418826</t>
+  </si>
+  <si>
+    <t>0573160122</t>
+  </si>
+  <si>
+    <t>0531980689</t>
+  </si>
+  <si>
+    <t>0599673634</t>
+  </si>
+  <si>
+    <t>0526073788</t>
+  </si>
+  <si>
+    <t>0584508327</t>
+  </si>
+  <si>
+    <t>0555930992</t>
+  </si>
+  <si>
+    <t>0561551824</t>
+  </si>
+  <si>
+    <t>0502658648</t>
+  </si>
+  <si>
+    <t>0584755490</t>
+  </si>
+  <si>
+    <t>0576581286</t>
+  </si>
+  <si>
+    <t>0533413746</t>
+  </si>
+  <si>
+    <t>0506879719</t>
+  </si>
+  <si>
+    <t>0506761518</t>
+  </si>
+  <si>
+    <t>0507716860</t>
+  </si>
+  <si>
+    <t>0540698303</t>
+  </si>
+  <si>
+    <t>0598545841</t>
+  </si>
+  <si>
+    <t>0599392820</t>
+  </si>
+  <si>
+    <t>0592978867</t>
+  </si>
+  <si>
+    <t>0532404617</t>
+  </si>
+  <si>
+    <t>0501170086</t>
+  </si>
+  <si>
+    <t>0596250968</t>
+  </si>
+  <si>
+    <t>0531611564</t>
+  </si>
+  <si>
+    <t>0579753528</t>
+  </si>
+  <si>
+    <t>0535748106</t>
+  </si>
+  <si>
+    <t>0546407008</t>
+  </si>
+  <si>
+    <t>0511521731</t>
+  </si>
+  <si>
+    <t>0582610106</t>
+  </si>
+  <si>
+    <t>0502060287</t>
+  </si>
+  <si>
+    <t>0557477176</t>
+  </si>
+  <si>
+    <t>0549885152</t>
+  </si>
+  <si>
+    <t>0577179082</t>
+  </si>
+  <si>
+    <t>0572831382</t>
+  </si>
+  <si>
+    <t>0549269067</t>
+  </si>
+  <si>
+    <t>0500770944</t>
+  </si>
+  <si>
+    <t>0522079081</t>
+  </si>
+  <si>
+    <t>0582202872</t>
+  </si>
+  <si>
+    <t>0561100769</t>
+  </si>
+  <si>
+    <t>0599756940</t>
+  </si>
+  <si>
+    <t>0574268903</t>
+  </si>
+  <si>
+    <t>0588083318</t>
+  </si>
+  <si>
+    <t>0502533249</t>
+  </si>
+  <si>
+    <t>0540189999</t>
+  </si>
+  <si>
+    <t>0586735093</t>
+  </si>
+  <si>
+    <t>0536965154</t>
+  </si>
+  <si>
+    <t>0522985150</t>
+  </si>
+  <si>
+    <t>0550414936</t>
+  </si>
+  <si>
+    <t>0593463124</t>
+  </si>
+  <si>
+    <t>0510812495</t>
+  </si>
+  <si>
+    <t>0574050676</t>
+  </si>
+  <si>
+    <t>0579734030</t>
+  </si>
+  <si>
+    <t>0502495907</t>
+  </si>
+  <si>
+    <t>0516367545</t>
+  </si>
+  <si>
+    <t>0576118065</t>
+  </si>
+  <si>
+    <t>0527076108</t>
+  </si>
+  <si>
+    <t>0577237504</t>
+  </si>
+  <si>
+    <t>0588812453</t>
+  </si>
+  <si>
+    <t>0546906430</t>
+  </si>
+  <si>
+    <t>0583786001</t>
+  </si>
+  <si>
+    <t>0538651952</t>
+  </si>
+  <si>
+    <t>0560837165</t>
+  </si>
+  <si>
+    <t>0567714343</t>
+  </si>
+  <si>
+    <t>0588847195</t>
+  </si>
+  <si>
+    <t>0526334426</t>
+  </si>
+  <si>
+    <t>0524888424</t>
+  </si>
+  <si>
+    <t>0532737738</t>
+  </si>
+  <si>
+    <t>0590939011</t>
+  </si>
+  <si>
+    <t>0520705821</t>
+  </si>
+  <si>
+    <t>0568983001</t>
+  </si>
+  <si>
+    <t>0548439380</t>
+  </si>
+  <si>
+    <t>0592368764</t>
+  </si>
+  <si>
+    <t>0513793071</t>
+  </si>
+  <si>
+    <t>0539277911</t>
+  </si>
+  <si>
+    <t>0563274467</t>
+  </si>
+  <si>
+    <t>0558606959</t>
+  </si>
+  <si>
+    <t>0558706538</t>
+  </si>
+  <si>
+    <t>0570763950</t>
+  </si>
+  <si>
+    <t>0531487939</t>
+  </si>
+  <si>
+    <t>0575059318</t>
+  </si>
+  <si>
+    <t>0518671119</t>
+  </si>
+  <si>
+    <t>0505153384</t>
+  </si>
+  <si>
+    <t>0589144336</t>
+  </si>
+  <si>
+    <t>0526891199</t>
+  </si>
+  <si>
+    <t>0516428769</t>
+  </si>
+  <si>
+    <t>0507525151</t>
+  </si>
+  <si>
+    <t>0548282892</t>
+  </si>
+  <si>
+    <t>0591712674</t>
+  </si>
+  <si>
+    <t>0566469258</t>
+  </si>
+  <si>
+    <t>0558718673</t>
+  </si>
+  <si>
+    <t>0544815708</t>
+  </si>
+  <si>
+    <t>0543211321</t>
+  </si>
+  <si>
+    <t>0596508588</t>
+  </si>
+  <si>
+    <t>0534277817</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -4740,10 +5049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986FECF-798E-4561-808A-5180F951D82D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,20 +5064,1703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>111111111</v>
-      </c>
-      <c r="B1" s="1">
-        <v>512345646</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="D1" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43407</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43398</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43406</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43425</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43407</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43414</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43401</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43401</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43418</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43398</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43400</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43395</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43413</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43407</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43399</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43405</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43430</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43428</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D47" s="2">
         <v>43431</v>
       </c>
-      <c r="E1" s="2">
-        <v>43797</v>
+      <c r="E47" s="2">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43430</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43399</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43401</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43428</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43402</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43431</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43406</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43396</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43401</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43413</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43428</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D78" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43414</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E81" s="2">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43406</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D83" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E84" s="2">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43403</v>
+      </c>
+      <c r="E85" s="2">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D86" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D87" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E87" s="2">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43397</v>
+      </c>
+      <c r="E88" s="2">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D89" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E89" s="2">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D90" s="2">
+        <v>43428</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43402</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43399</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D93" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D94" s="2">
+        <v>43406</v>
+      </c>
+      <c r="E94" s="2">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D95" s="2">
+        <v>43414</v>
+      </c>
+      <c r="E95" s="2">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E96" s="2">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D97" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E97" s="2">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D98" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E98" s="2">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D99" s="2">
+        <v>43396</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D100" s="2">
+        <v>43418</v>
+      </c>
+      <c r="E100" s="2">
+        <v>43722</v>
       </c>
     </row>
   </sheetData>

--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2F93C-3AF1-49CB-BA1F-83C86DF5AE27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="615">
   <si>
     <t>085083772</t>
   </si>
   <si>
-    <t>Peregrine</t>
-  </si>
-  <si>
     <t>Illingsworth</t>
   </si>
   <si>
@@ -53,9 +49,6 @@
     <t>Lincoln</t>
   </si>
   <si>
-    <t>Reyes</t>
-  </si>
-  <si>
     <t>0546443105</t>
   </si>
   <si>
@@ -1803,12 +1796,81 @@
   </si>
   <si>
     <t>0534277817</t>
+  </si>
+  <si>
+    <t>Peregrineyop</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>he is the president idk</t>
+  </si>
+  <si>
+    <t>Wanker</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>omer</t>
+  </si>
+  <si>
+    <t>avis</t>
+  </si>
+  <si>
+    <t>0546564870</t>
+  </si>
+  <si>
+    <t>ome@dd.com</t>
+  </si>
+  <si>
+    <t>New(10%)</t>
+  </si>
+  <si>
+    <t>Date, details about the last call</t>
+  </si>
+  <si>
+    <t>019283475</t>
+  </si>
+  <si>
+    <t>micha</t>
+  </si>
+  <si>
+    <t>efi</t>
+  </si>
+  <si>
+    <t>dom@dd.com</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>shimi</t>
+  </si>
+  <si>
+    <t>tavori</t>
+  </si>
+  <si>
+    <t>05444444441</t>
+  </si>
+  <si>
+    <t>omer@sce.il</t>
+  </si>
+  <si>
+    <t>vip very vip (his request)</t>
+  </si>
+  <si>
+    <t>now he knows</t>
+  </si>
+  <si>
+    <t>stupid name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2121,11 +2183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,2899 +2208,2986 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2">
-        <v>43405</v>
+        <v>43436</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2">
-        <v>43411</v>
+        <v>43436</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="2">
-        <v>43429</v>
+        <v>43436</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>43411</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>43402</v>
+        <v>43436</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>43427</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2">
         <v>43408</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2">
         <v>43402</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>43424</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2">
         <v>43426</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
         <v>43423</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
         <v>43421</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="2">
         <v>43417</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="2">
         <v>43405</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2">
         <v>43430</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
         <v>43417</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="2">
         <v>43418</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2">
         <v>43409</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2">
         <v>43423</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2">
         <v>43420</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2">
         <v>43412</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2">
         <v>43429</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2">
         <v>43404</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="2">
         <v>43430</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2">
         <v>43422</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2">
         <v>43429</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
         <v>43402</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2">
         <v>43409</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29" s="2">
         <v>43421</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H30" s="2">
         <v>43425</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H31" s="2">
         <v>43404</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2">
         <v>43404</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H33" s="2">
         <v>43417</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H34" s="2">
         <v>43429</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="2">
         <v>43423</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H36" s="2">
         <v>43423</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2">
         <v>43426</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2">
         <v>43405</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H39" s="2">
         <v>43421</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H40" s="2">
         <v>43422</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2">
         <v>43414</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H42" s="2">
         <v>43416</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H43" s="2">
         <v>43403</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2">
         <v>43416</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" s="2">
         <v>43429</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" s="2">
         <v>43409</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H47" s="2">
         <v>43418</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48" s="2">
         <v>43431</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" s="2">
         <v>43403</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>43410</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2">
         <v>43403</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H52" s="2">
         <v>43404</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H53" s="2">
         <v>43425</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54" s="2">
         <v>43414</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2">
         <v>43423</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H56" s="2">
         <v>43418</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H57" s="2">
         <v>43413</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H58" s="2">
         <v>43421</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2">
         <v>43427</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" s="2">
         <v>43429</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2">
         <v>43408</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H62" s="2">
         <v>43431</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" s="2">
         <v>43409</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H64" s="2">
         <v>43402</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H65" s="2">
         <v>43431</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H66" s="2">
         <v>43410</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H67" s="2">
         <v>43402</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H68" s="2">
         <v>43403</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H69" s="2">
         <v>43405</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H70" s="2">
         <v>43432</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H71" s="2">
         <v>43407</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H72" s="2">
         <v>43424</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H73" s="2">
         <v>43406</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H74" s="2">
         <v>43408</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H75" s="2">
         <v>43432</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H76" s="2">
         <v>43409</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H77" s="2">
         <v>43414</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H78" s="2">
         <v>43427</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H79" s="2">
         <v>43405</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H80" s="2">
         <v>43430</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="F81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H81" s="2">
         <v>43427</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H82" s="2">
         <v>43431</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H83" s="2">
         <v>43413</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H84" s="2">
         <v>43409</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H85" s="2">
         <v>43403</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H86" s="2">
         <v>43408</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H87" s="2">
         <v>43406</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H88" s="2">
         <v>43430</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H89" s="2">
-        <v>43415</v>
+        <v>43436</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" s="2">
         <v>43410</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H91" s="2">
         <v>43417</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H92" s="2">
         <v>43419</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H93" s="2">
         <v>43429</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H94" s="2">
         <v>43409</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" s="2">
         <v>43410</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H96" s="2">
         <v>43425</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" s="2">
         <v>43407</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H98" s="2">
         <v>43424</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H99" s="2">
         <v>43420</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H100" s="2">
         <v>43420</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="2">
+        <v>43436</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43436</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="2">
+        <v>43436</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5048,10 +5197,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C986FECF-798E-4561-808A-5180F951D82D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5065,13 +5214,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D1" s="2">
         <v>43404</v>
@@ -5082,13 +5231,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D2" s="2">
         <v>43407</v>
@@ -5099,13 +5248,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D3" s="2">
         <v>43398</v>
@@ -5116,13 +5265,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D4" s="2">
         <v>43403</v>
@@ -5133,13 +5282,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D5" s="2">
         <v>43423</v>
@@ -5150,13 +5299,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D6" s="2">
         <v>43406</v>
@@ -5170,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D7" s="2">
         <v>43403</v>
@@ -5184,13 +5333,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D8" s="2">
         <v>43425</v>
@@ -5201,13 +5350,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D9" s="2">
         <v>43423</v>
@@ -5218,13 +5367,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D10" s="2">
         <v>43415</v>
@@ -5235,13 +5384,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D11" s="2">
         <v>43407</v>
@@ -5252,13 +5401,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D12" s="2">
         <v>43414</v>
@@ -5269,13 +5418,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D13" s="2">
         <v>43419</v>
@@ -5286,13 +5435,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D14" s="2">
         <v>43426</v>
@@ -5303,13 +5452,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D15" s="2">
         <v>43409</v>
@@ -5320,13 +5469,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D16" s="2">
         <v>43419</v>
@@ -5337,13 +5486,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D17" s="2">
         <v>43401</v>
@@ -5354,13 +5503,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D18" s="2">
         <v>43403</v>
@@ -5371,13 +5520,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D19" s="2">
         <v>43401</v>
@@ -5388,13 +5537,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D20" s="2">
         <v>43410</v>
@@ -5405,13 +5554,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D21" s="2">
         <v>43418</v>
@@ -5422,13 +5571,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D22" s="2">
         <v>43409</v>
@@ -5439,13 +5588,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D23" s="2">
         <v>43398</v>
@@ -5456,13 +5605,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D24" s="2">
         <v>43400</v>
@@ -5473,13 +5622,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D25" s="2">
         <v>43424</v>
@@ -5490,13 +5639,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D26" s="2">
         <v>43395</v>
@@ -5507,13 +5656,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D27" s="2">
         <v>43409</v>
@@ -5524,13 +5673,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D28" s="2">
         <v>43411</v>
@@ -5541,13 +5690,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D29" s="2">
         <v>43413</v>
@@ -5558,13 +5707,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D30" s="2">
         <v>43404</v>
@@ -5575,13 +5724,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D31" s="2">
         <v>43404</v>
@@ -5592,13 +5741,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D32" s="2">
         <v>43423</v>
@@ -5609,13 +5758,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D33" s="2">
         <v>43407</v>
@@ -5626,13 +5775,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D34" s="2">
         <v>43416</v>
@@ -5643,13 +5792,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D35" s="2">
         <v>43408</v>
@@ -5660,13 +5809,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D36" s="2">
         <v>43429</v>
@@ -5677,13 +5826,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D37" s="2">
         <v>43423</v>
@@ -5694,13 +5843,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D38" s="2">
         <v>43409</v>
@@ -5711,13 +5860,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D39" s="2">
         <v>43419</v>
@@ -5728,13 +5877,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D40" s="2">
         <v>43399</v>
@@ -5745,13 +5894,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D41" s="2">
         <v>43417</v>
@@ -5762,13 +5911,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D42" s="2">
         <v>43408</v>
@@ -5779,13 +5928,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D43" s="2">
         <v>43422</v>
@@ -5799,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D44" s="2">
         <v>43405</v>
@@ -5813,13 +5962,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D45" s="2">
         <v>43430</v>
@@ -5830,13 +5979,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D46" s="2">
         <v>43428</v>
@@ -5847,13 +5996,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D47" s="2">
         <v>43431</v>
@@ -5864,13 +6013,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D48" s="2">
         <v>43427</v>
@@ -5881,13 +6030,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D49" s="2">
         <v>43416</v>
@@ -5898,13 +6047,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D50" s="2">
         <v>43410</v>
@@ -5915,13 +6064,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D51" s="2">
         <v>43430</v>
@@ -5932,13 +6081,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D52" s="2">
         <v>43417</v>
@@ -5949,13 +6098,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D53" s="2">
         <v>43429</v>
@@ -5966,13 +6115,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D54" s="2">
         <v>43403</v>
@@ -5983,13 +6132,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D55" s="2">
         <v>43426</v>
@@ -6000,13 +6149,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D56" s="2">
         <v>43399</v>
@@ -6017,13 +6166,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D57" s="2">
         <v>43401</v>
@@ -6034,13 +6183,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D58" s="2">
         <v>43423</v>
@@ -6051,13 +6200,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D59" s="2">
         <v>43404</v>
@@ -6068,13 +6217,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D60" s="2">
         <v>43423</v>
@@ -6085,13 +6234,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D61" s="2">
         <v>43428</v>
@@ -6102,13 +6251,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D62" s="2">
         <v>43429</v>
@@ -6119,13 +6268,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D63" s="2">
         <v>43420</v>
@@ -6136,13 +6285,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D64" s="2">
         <v>43420</v>
@@ -6153,13 +6302,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D65" s="2">
         <v>43415</v>
@@ -6170,13 +6319,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D66" s="2">
         <v>43411</v>
@@ -6187,13 +6336,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D67" s="2">
         <v>43402</v>
@@ -6204,13 +6353,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D68" s="2">
         <v>43409</v>
@@ -6221,13 +6370,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D69" s="2">
         <v>43411</v>
@@ -6238,13 +6387,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2">
         <v>43431</v>
@@ -6255,13 +6404,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D71" s="2">
         <v>43406</v>
@@ -6272,13 +6421,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D72" s="2">
         <v>43424</v>
@@ -6289,13 +6438,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D73" s="2">
         <v>43396</v>
@@ -6306,13 +6455,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D74" s="2">
         <v>43422</v>
@@ -6323,13 +6472,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D75" s="2">
         <v>43401</v>
@@ -6340,13 +6489,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D76" s="2">
         <v>43413</v>
@@ -6357,13 +6506,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D77" s="2">
         <v>43428</v>
@@ -6374,13 +6523,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D78" s="2">
         <v>43404</v>
@@ -6391,13 +6540,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D79" s="2">
         <v>43414</v>
@@ -6408,13 +6557,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D80" s="2">
         <v>43404</v>
@@ -6425,13 +6574,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D81" s="2">
         <v>43422</v>
@@ -6442,13 +6591,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D82" s="2">
         <v>43406</v>
@@ -6459,13 +6608,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D83" s="2">
         <v>43415</v>
@@ -6476,13 +6625,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D84" s="2">
         <v>43404</v>
@@ -6493,13 +6642,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D85" s="2">
         <v>43403</v>
@@ -6510,13 +6659,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D86" s="2">
         <v>43419</v>
@@ -6527,13 +6676,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D87" s="2">
         <v>43420</v>
@@ -6544,13 +6693,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D88" s="2">
         <v>43397</v>
@@ -6561,13 +6710,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D89" s="2">
         <v>43427</v>
@@ -6578,13 +6727,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D90" s="2">
         <v>43428</v>
@@ -6595,13 +6744,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D91" s="2">
         <v>43402</v>
@@ -6612,13 +6761,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D92" s="2">
         <v>43399</v>
@@ -6629,13 +6778,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D93" s="2">
         <v>43404</v>
@@ -6646,13 +6795,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D94" s="2">
         <v>43406</v>
@@ -6663,13 +6812,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D95" s="2">
         <v>43414</v>
@@ -6680,13 +6829,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D96" s="2">
         <v>43426</v>
@@ -6697,13 +6846,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D97" s="2">
         <v>43415</v>
@@ -6714,13 +6863,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D98" s="2">
         <v>43429</v>
@@ -6731,13 +6880,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D99" s="2">
         <v>43396</v>
@@ -6748,13 +6897,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D100" s="2">
         <v>43418</v>

--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="621">
   <si>
     <t>085083772</t>
   </si>
@@ -1865,6 +1865,24 @@
   </si>
   <si>
     <t>stupid name</t>
+  </si>
+  <si>
+    <t>11111111222</t>
+  </si>
+  <si>
+    <t>shmoolick</t>
+  </si>
+  <si>
+    <t>shamee</t>
+  </si>
+  <si>
+    <t>0545468412</t>
+  </si>
+  <si>
+    <t>dsa@ds.com</t>
+  </si>
+  <si>
+    <t>whyyyyy</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E102" sqref="E102"/>
@@ -5188,6 +5206,35 @@
       </c>
       <c r="I103" s="1" t="s">
         <v>612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2">
+        <v>43436</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="622">
   <si>
     <t>085083772</t>
   </si>
@@ -1883,17 +1883,20 @@
   </si>
   <si>
     <t>whyyyyy</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2194,7 +2197,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2202,26 +2205,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="2" max="3" width="9.125" style="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>130</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>135</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>150</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>160</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>165</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>170</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>185</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>190</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>195</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>209</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>214</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>219</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>229</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>234</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>239</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>244</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>253</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>258</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>263</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>268</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>273</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>278</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>283</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>288</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>293</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>298</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>303</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>308</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>313</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>318</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>322</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>327</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>331</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>335</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>340</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>345</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>350</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>355</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>359</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>364</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>368</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>373</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>378</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>382</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>387</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>391</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>396</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>400</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>404</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>409</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>413</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>418</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>422</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>427</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>431</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>435</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>439</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>444</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>448</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>453</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>457</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>462</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>466</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>470</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>475</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>479</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>484</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>596</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>603</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>607</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>615</v>
       </c>
@@ -5235,6 +5238,35 @@
       </c>
       <c r="I104" s="1" t="s">
         <v>620</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5251,15 +5283,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>378</v>
       </c>
@@ -5276,7 +5308,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -5293,7 +5325,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>195</v>
       </c>
@@ -5310,7 +5342,7 @@
         <v>43610</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>253</v>
       </c>
@@ -5327,7 +5359,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>387</v>
       </c>
@@ -5344,7 +5376,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>378</v>
       </c>
@@ -5361,7 +5393,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5410,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
@@ -5395,7 +5427,7 @@
         <v>43637</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>298</v>
       </c>
@@ -5412,7 +5444,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>435</v>
       </c>
@@ -5429,7 +5461,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>382</v>
       </c>
@@ -5446,7 +5478,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5463,7 +5495,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>359</v>
       </c>
@@ -5480,7 +5512,7 @@
         <v>43723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -5497,7 +5529,7 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>234</v>
       </c>
@@ -5514,7 +5546,7 @@
         <v>43743</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>448</v>
       </c>
@@ -5531,7 +5563,7 @@
         <v>43631</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>422</v>
       </c>
@@ -5548,7 +5580,7 @@
         <v>43674</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>340</v>
       </c>
@@ -5565,7 +5597,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>418</v>
       </c>
@@ -5582,7 +5614,7 @@
         <v>43736</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>331</v>
       </c>
@@ -5599,7 +5631,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -5616,7 +5648,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -5633,7 +5665,7 @@
         <v>43743</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>248</v>
       </c>
@@ -5650,7 +5682,7 @@
         <v>43610</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>335</v>
       </c>
@@ -5667,7 +5699,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
@@ -5684,7 +5716,7 @@
         <v>43636</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -5701,7 +5733,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>409</v>
       </c>
@@ -5718,7 +5750,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>435</v>
       </c>
@@ -5735,7 +5767,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>170</v>
       </c>
@@ -5752,7 +5784,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -5769,7 +5801,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>331</v>
       </c>
@@ -5786,7 +5818,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>396</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>413</v>
       </c>
@@ -5820,7 +5852,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -5837,7 +5869,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>308</v>
       </c>
@@ -5854,7 +5886,7 @@
         <v>43589</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>350</v>
       </c>
@@ -5871,7 +5903,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>359</v>
       </c>
@@ -5888,7 +5920,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>253</v>
       </c>
@@ -5905,7 +5937,7 @@
         <v>43621</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>448</v>
       </c>
@@ -5922,7 +5954,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>139</v>
       </c>
@@ -5939,7 +5971,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5956,7 +5988,7 @@
         <v>43598</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +6005,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
@@ -5990,7 +6022,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6039,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -6024,7 +6056,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>396</v>
       </c>
@@ -6041,7 +6073,7 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>404</v>
       </c>
@@ -6058,7 +6090,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>404</v>
       </c>
@@ -6075,7 +6107,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>199</v>
       </c>
@@ -6092,7 +6124,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>331</v>
       </c>
@@ -6109,7 +6141,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>404</v>
       </c>
@@ -6126,7 +6158,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>293</v>
       </c>
@@ -6143,7 +6175,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
@@ -6160,7 +6192,7 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>364</v>
       </c>
@@ -6177,7 +6209,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
@@ -6194,7 +6226,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -6211,7 +6243,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>258</v>
       </c>
@@ -6228,7 +6260,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
@@ -6245,7 +6277,7 @@
         <v>43604</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -6262,7 +6294,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>466</v>
       </c>
@@ -6279,7 +6311,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -6296,7 +6328,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>431</v>
       </c>
@@ -6313,7 +6345,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>387</v>
       </c>
@@ -6330,7 +6362,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>475</v>
       </c>
@@ -6347,7 +6379,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>484</v>
       </c>
@@ -6364,7 +6396,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -6381,7 +6413,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>355</v>
       </c>
@@ -6398,7 +6430,7 @@
         <v>43737</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6447,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>444</v>
       </c>
@@ -6432,7 +6464,7 @@
         <v>43715</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>373</v>
       </c>
@@ -6449,7 +6481,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>308</v>
       </c>
@@ -6466,7 +6498,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -6483,7 +6515,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>418</v>
       </c>
@@ -6500,7 +6532,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>387</v>
       </c>
@@ -6517,7 +6549,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>160</v>
       </c>
@@ -6534,7 +6566,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -6551,7 +6583,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
@@ -6568,7 +6600,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>345</v>
       </c>
@@ -6585,7 +6617,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
@@ -6602,7 +6634,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>331</v>
       </c>
@@ -6619,7 +6651,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
@@ -6636,7 +6668,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>308</v>
       </c>
@@ -6653,7 +6685,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>444</v>
       </c>
@@ -6670,7 +6702,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>470</v>
       </c>
@@ -6687,7 +6719,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>422</v>
       </c>
@@ -6704,7 +6736,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>293</v>
       </c>
@@ -6721,7 +6753,7 @@
         <v>43631</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>293</v>
       </c>
@@ -6738,7 +6770,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>258</v>
       </c>
@@ -6755,7 +6787,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>387</v>
       </c>
@@ -6772,7 +6804,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>404</v>
       </c>
@@ -6789,7 +6821,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>219</v>
       </c>
@@ -6806,7 +6838,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>120</v>
       </c>
@@ -6823,7 +6855,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>364</v>
       </c>
@@ -6840,7 +6872,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>378</v>
       </c>
@@ -6857,7 +6889,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>224</v>
       </c>
@@ -6874,7 +6906,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>32</v>
       </c>
@@ -6891,7 +6923,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>214</v>
       </c>
@@ -6908,7 +6940,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>327</v>
       </c>
@@ -6925,7 +6957,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>248</v>
       </c>
@@ -6942,7 +6974,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>268</v>
       </c>

--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="503">
   <si>
     <t>085083772</t>
   </si>
@@ -46,18 +46,6 @@
     <t>408050840</t>
   </si>
   <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>0546443105</t>
-  </si>
-  <si>
-    <t>Lincoln_Reyes@Jmail.com</t>
-  </si>
-  <si>
-    <t>Closed lost(0%)</t>
-  </si>
-  <si>
     <t>208063511</t>
   </si>
   <si>
@@ -103,21 +91,6 @@
     <t>987654324</t>
   </si>
   <si>
-    <t>239880646</t>
-  </si>
-  <si>
-    <t>Zachariya</t>
-  </si>
-  <si>
-    <t>Weinstein</t>
-  </si>
-  <si>
-    <t>0526979018</t>
-  </si>
-  <si>
-    <t>Zachariya_Weinstein@Bmail.com</t>
-  </si>
-  <si>
     <t>475034384</t>
   </si>
   <si>
@@ -355,33 +328,9 @@
     <t>Leigham_Ulrich@Wmail.com</t>
   </si>
   <si>
-    <t>182744862</t>
-  </si>
-  <si>
-    <t>Ayren</t>
-  </si>
-  <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>0520964406</t>
-  </si>
-  <si>
-    <t>Ayren_Cast@Amail.com</t>
-  </si>
-  <si>
     <t>235607922</t>
   </si>
   <si>
-    <t>Patrick-John</t>
-  </si>
-  <si>
-    <t>0502737518</t>
-  </si>
-  <si>
-    <t>Patrick-John_Illingsworth@Email.com</t>
-  </si>
-  <si>
     <t>427928444</t>
   </si>
   <si>
@@ -439,24 +388,6 @@
     <t>Jock_Eastman@Qmail.com</t>
   </si>
   <si>
-    <t>257568547</t>
-  </si>
-  <si>
-    <t>Rooke</t>
-  </si>
-  <si>
-    <t>Yang</t>
-  </si>
-  <si>
-    <t>0559825333</t>
-  </si>
-  <si>
-    <t>Rooke_Yang@Mmail.com</t>
-  </si>
-  <si>
-    <t>Closed won(100%)</t>
-  </si>
-  <si>
     <t>091219252</t>
   </si>
   <si>
@@ -562,36 +493,6 @@
     <t>Fyn_Zeaser@Pmail.com</t>
   </si>
   <si>
-    <t>478658315</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Chambers</t>
-  </si>
-  <si>
-    <t>0592634119</t>
-  </si>
-  <si>
-    <t>Landon_Chambers@Xmail.com</t>
-  </si>
-  <si>
-    <t>369704228</t>
-  </si>
-  <si>
-    <t>Dyllan</t>
-  </si>
-  <si>
-    <t>Uflan</t>
-  </si>
-  <si>
-    <t>0533962681</t>
-  </si>
-  <si>
-    <t>Dyllan_Uflan@Ymail.com</t>
-  </si>
-  <si>
     <t>378194752</t>
   </si>
   <si>
@@ -649,36 +550,9 @@
     <t>Abhisumant_Cataldi@Umail.com</t>
   </si>
   <si>
-    <t>271614804</t>
-  </si>
-  <si>
-    <t>Alastair</t>
-  </si>
-  <si>
     <t>Solberg</t>
   </si>
   <si>
-    <t>0535958860</t>
-  </si>
-  <si>
-    <t>Alastair_Solberg@Xmail.com</t>
-  </si>
-  <si>
-    <t>150437380</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>0593397389</t>
-  </si>
-  <si>
-    <t>Roman_Johnson@Dmail.com</t>
-  </si>
-  <si>
     <t>428231244</t>
   </si>
   <si>
@@ -724,21 +598,6 @@
     <t>Ciaran_Soukup@Jmail.com</t>
   </si>
   <si>
-    <t>407044152</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>0502472017</t>
-  </si>
-  <si>
-    <t>AJ_Anderson@Amail.com</t>
-  </si>
-  <si>
     <t>454297471</t>
   </si>
   <si>
@@ -784,18 +643,6 @@
     <t>200683482</t>
   </si>
   <si>
-    <t>Eden</t>
-  </si>
-  <si>
-    <t>Schwager</t>
-  </si>
-  <si>
-    <t>0529220901</t>
-  </si>
-  <si>
-    <t>Eden_Schwager@Fmail.com</t>
-  </si>
-  <si>
     <t>493462446</t>
   </si>
   <si>
@@ -811,21 +658,6 @@
     <t>Finan_Vail@Vmail.com</t>
   </si>
   <si>
-    <t>203571281</t>
-  </si>
-  <si>
-    <t>Codi</t>
-  </si>
-  <si>
-    <t>Trusela</t>
-  </si>
-  <si>
-    <t>0527487678</t>
-  </si>
-  <si>
-    <t>Codi_Trusela@Imail.com</t>
-  </si>
-  <si>
     <t>165765556</t>
   </si>
   <si>
@@ -856,21 +688,9 @@
     <t>Wallace_Haworth@Rmail.com</t>
   </si>
   <si>
-    <t>149049427</t>
-  </si>
-  <si>
-    <t>Niall</t>
-  </si>
-  <si>
     <t>Vader</t>
   </si>
   <si>
-    <t>0589969445</t>
-  </si>
-  <si>
-    <t>Niall_Vader@Zmail.com</t>
-  </si>
-  <si>
     <t>348716495</t>
   </si>
   <si>
@@ -886,21 +706,6 @@
     <t>Travis_Pettigrew@Imail.com</t>
   </si>
   <si>
-    <t>266622076</t>
-  </si>
-  <si>
-    <t>Vrishin</t>
-  </si>
-  <si>
-    <t>Lawicki</t>
-  </si>
-  <si>
-    <t>0526622627</t>
-  </si>
-  <si>
-    <t>Vrishin_Lawicki@Vmail.com</t>
-  </si>
-  <si>
     <t>034654209</t>
   </si>
   <si>
@@ -976,33 +781,6 @@
     <t>Yannick_Davidson@Qmail.com</t>
   </si>
   <si>
-    <t>268005135</t>
-  </si>
-  <si>
-    <t>Kaden</t>
-  </si>
-  <si>
-    <t>0502685484</t>
-  </si>
-  <si>
-    <t>Kaden_Jones@Lmail.com</t>
-  </si>
-  <si>
-    <t>330940865</t>
-  </si>
-  <si>
-    <t>John-Michael</t>
-  </si>
-  <si>
-    <t>Johnsen</t>
-  </si>
-  <si>
-    <t>0566074736</t>
-  </si>
-  <si>
-    <t>John-Michael_Johnsen@Bmail.com</t>
-  </si>
-  <si>
     <t>023127812</t>
   </si>
   <si>
@@ -1072,21 +850,6 @@
     <t>Pranav_Wakefield@Dmail.com</t>
   </si>
   <si>
-    <t>275403026</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Jenson</t>
-  </si>
-  <si>
-    <t>0510408850</t>
-  </si>
-  <si>
-    <t>Danny_Jenson@Mmail.com</t>
-  </si>
-  <si>
     <t>272538842</t>
   </si>
   <si>
@@ -1168,21 +931,6 @@
     <t>Hunter_Ostrander@Umail.com</t>
   </si>
   <si>
-    <t>402054292</t>
-  </si>
-  <si>
-    <t>Moray</t>
-  </si>
-  <si>
-    <t>Pak</t>
-  </si>
-  <si>
-    <t>0582404805</t>
-  </si>
-  <si>
-    <t>Moray_Pak@Zmail.com</t>
-  </si>
-  <si>
     <t>242152780</t>
   </si>
   <si>
@@ -1195,21 +943,6 @@
     <t>Zane_Ingram@Qmail.com</t>
   </si>
   <si>
-    <t>088197412</t>
-  </si>
-  <si>
-    <t>Clarke</t>
-  </si>
-  <si>
-    <t>Yates</t>
-  </si>
-  <si>
-    <t>0575336758</t>
-  </si>
-  <si>
-    <t>Clarke_Yates@Email.com</t>
-  </si>
-  <si>
     <t>161590002</t>
   </si>
   <si>
@@ -1222,18 +955,6 @@
     <t>Henry_Schiebel@Lmail.com</t>
   </si>
   <si>
-    <t>011371483</t>
-  </si>
-  <si>
-    <t>Lachlann</t>
-  </si>
-  <si>
-    <t>0565715121</t>
-  </si>
-  <si>
-    <t>Lachlann_Ashwoon@Fmail.com</t>
-  </si>
-  <si>
     <t>096776014</t>
   </si>
   <si>
@@ -1303,18 +1024,6 @@
     <t>Eadie_Root@Nmail.com</t>
   </si>
   <si>
-    <t>136210916</t>
-  </si>
-  <si>
-    <t>Modoulamin</t>
-  </si>
-  <si>
-    <t>0562774353</t>
-  </si>
-  <si>
-    <t>Modoulamin_Myers@Cmail.com</t>
-  </si>
-  <si>
     <t>113257802</t>
   </si>
   <si>
@@ -1381,18 +1090,6 @@
     <t>Zeeshan_Kaskel@Dmail.com</t>
   </si>
   <si>
-    <t>048827391</t>
-  </si>
-  <si>
-    <t>Zackary</t>
-  </si>
-  <si>
-    <t>0509272947</t>
-  </si>
-  <si>
-    <t>Zackary_Stahl@Xmail.com</t>
-  </si>
-  <si>
     <t>025538780</t>
   </si>
   <si>
@@ -1408,18 +1105,6 @@
     <t>Branden_Darnell@Pmail.com</t>
   </si>
   <si>
-    <t>457186724</t>
-  </si>
-  <si>
-    <t>Derrie</t>
-  </si>
-  <si>
-    <t>0565620141</t>
-  </si>
-  <si>
-    <t>Derrie_Ulrich@Hmail.com</t>
-  </si>
-  <si>
     <t>239138926</t>
   </si>
   <si>
@@ -1504,9 +1189,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>0503488528</t>
-  </si>
-  <si>
     <t>0582460013</t>
   </si>
   <si>
@@ -1519,18 +1201,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>0529418826</t>
-  </si>
-  <si>
     <t>0573160122</t>
   </si>
   <si>
     <t>0531980689</t>
   </si>
   <si>
-    <t>0599673634</t>
-  </si>
-  <si>
     <t>0526073788</t>
   </si>
   <si>
@@ -1540,9 +1216,6 @@
     <t>0555930992</t>
   </si>
   <si>
-    <t>0561551824</t>
-  </si>
-  <si>
     <t>0502658648</t>
   </si>
   <si>
@@ -1570,12 +1243,6 @@
     <t>0598545841</t>
   </si>
   <si>
-    <t>0599392820</t>
-  </si>
-  <si>
-    <t>0592978867</t>
-  </si>
-  <si>
     <t>0532404617</t>
   </si>
   <si>
@@ -1603,9 +1270,6 @@
     <t>0582610106</t>
   </si>
   <si>
-    <t>0502060287</t>
-  </si>
-  <si>
     <t>0557477176</t>
   </si>
   <si>
@@ -1615,15 +1279,9 @@
     <t>0577179082</t>
   </si>
   <si>
-    <t>0572831382</t>
-  </si>
-  <si>
     <t>0549269067</t>
   </si>
   <si>
-    <t>0500770944</t>
-  </si>
-  <si>
     <t>0522079081</t>
   </si>
   <si>
@@ -1786,9 +1444,6 @@
     <t>0558718673</t>
   </si>
   <si>
-    <t>0544815708</t>
-  </si>
-  <si>
     <t>0543211321</t>
   </si>
   <si>
@@ -1801,12 +1456,6 @@
     <t>Peregrineyop</t>
   </si>
   <si>
-    <t>Abe</t>
-  </si>
-  <si>
-    <t>he is the president idk</t>
-  </si>
-  <si>
     <t>Wanker</t>
   </si>
   <si>
@@ -1864,9 +1513,6 @@
     <t>now he knows</t>
   </si>
   <si>
-    <t>stupid name</t>
-  </si>
-  <si>
     <t>11111111222</t>
   </si>
   <si>
@@ -1883,9 +1529,6 @@
   </si>
   <si>
     <t>whyyyyy</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2205,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2229,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>592</v>
+        <v>477</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2255,86 +1898,86 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>593</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2">
         <v>43436</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>594</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
-        <v>43436</v>
+        <v>43411</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>613</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
-        <v>43411</v>
+        <v>43427</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
@@ -2342,57 +1985,57 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>43436</v>
+        <v>43408</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>614</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
-        <v>43427</v>
+        <v>43402</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
@@ -2400,28 +2043,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
-        <v>43408</v>
+        <v>43424</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
@@ -2429,28 +2072,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>43402</v>
+        <v>43426</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
@@ -2458,28 +2101,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2">
-        <v>43424</v>
+        <v>43423</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6</v>
@@ -2487,28 +2130,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>43426</v>
+        <v>43421</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -2516,28 +2159,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2">
-        <v>43423</v>
+        <v>43417</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
@@ -2545,28 +2188,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2">
-        <v>43421</v>
+        <v>43405</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
@@ -2574,28 +2217,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2">
-        <v>43417</v>
+        <v>43430</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
@@ -2603,28 +2246,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2">
-        <v>43405</v>
+        <v>43417</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6</v>
@@ -2632,28 +2275,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2">
-        <v>43430</v>
+        <v>43418</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6</v>
@@ -2661,28 +2304,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2">
-        <v>43417</v>
+        <v>43409</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
@@ -2690,28 +2333,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>6</v>
@@ -2719,13 +2362,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>100</v>
@@ -2734,13 +2377,13 @@
         <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2">
-        <v>43409</v>
+        <v>43420</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
@@ -2748,28 +2391,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>43423</v>
+        <v>43404</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>6</v>
@@ -2777,28 +2420,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="H20" s="2">
-        <v>43420</v>
+        <v>43430</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
@@ -2806,28 +2449,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
-        <v>43412</v>
+        <v>43422</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>6</v>
@@ -2835,25 +2478,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
         <v>43429</v>
@@ -2864,28 +2507,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
-        <v>43404</v>
+        <v>43409</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>6</v>
@@ -2893,28 +2536,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2">
-        <v>43430</v>
+        <v>43421</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>6</v>
@@ -2922,28 +2565,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H25" s="2">
-        <v>43422</v>
+        <v>43425</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>6</v>
@@ -2951,28 +2594,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>43429</v>
+        <v>43404</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>6</v>
@@ -2980,28 +2623,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
-        <v>43402</v>
+        <v>43404</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>6</v>
@@ -3009,28 +2652,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2">
-        <v>43409</v>
+        <v>43417</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6</v>
@@ -3038,28 +2681,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H29" s="2">
-        <v>43421</v>
+        <v>43429</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>6</v>
@@ -3067,28 +2710,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2">
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6</v>
@@ -3096,28 +2739,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>6</v>
@@ -3125,28 +2768,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H32" s="2">
-        <v>43404</v>
+        <v>43421</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6</v>
@@ -3154,28 +2797,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
-        <v>43417</v>
+        <v>43422</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>6</v>
@@ -3183,28 +2826,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H34" s="2">
-        <v>43429</v>
+        <v>43403</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6</v>
@@ -3212,28 +2855,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H35" s="2">
-        <v>43423</v>
+        <v>43416</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6</v>
@@ -3241,28 +2884,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2">
-        <v>43423</v>
+        <v>43429</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>6</v>
@@ -3270,28 +2913,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H37" s="2">
-        <v>43426</v>
+        <v>43418</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>6</v>
@@ -3299,28 +2942,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H38" s="2">
-        <v>43405</v>
+        <v>43431</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>6</v>
@@ -3328,28 +2971,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>43421</v>
+        <v>43403</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>6</v>
@@ -3357,28 +3000,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H40" s="2">
-        <v>43422</v>
+        <v>43403</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
@@ -3386,28 +3029,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H41" s="2">
-        <v>43414</v>
+        <v>43425</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>6</v>
@@ -3415,28 +3058,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2">
-        <v>43416</v>
+        <v>43414</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>6</v>
@@ -3444,28 +3087,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H43" s="2">
-        <v>43403</v>
+        <v>43418</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>6</v>
@@ -3473,28 +3116,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>43416</v>
+        <v>43421</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>6</v>
@@ -3502,28 +3145,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H45" s="2">
-        <v>43429</v>
+        <v>43427</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>6</v>
@@ -3531,28 +3174,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2">
-        <v>43409</v>
+        <v>43429</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>6</v>
@@ -3560,28 +3203,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2">
-        <v>43418</v>
+        <v>43408</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>6</v>
@@ -3589,25 +3232,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H48" s="2">
         <v>43431</v>
@@ -3618,28 +3261,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H49" s="2">
-        <v>43403</v>
+        <v>43431</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>6</v>
@@ -3647,25 +3290,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H50" s="2">
         <v>43410</v>
@@ -3676,28 +3319,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2">
-        <v>43403</v>
+        <v>43402</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>6</v>
@@ -3705,28 +3348,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H52" s="2">
-        <v>43404</v>
+        <v>43403</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>6</v>
@@ -3734,28 +3377,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2">
-        <v>43425</v>
+        <v>43405</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>6</v>
@@ -3763,28 +3406,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H54" s="2">
-        <v>43414</v>
+        <v>43407</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>6</v>
@@ -3792,28 +3435,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H55" s="2">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>6</v>
@@ -3821,28 +3464,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H56" s="2">
-        <v>43418</v>
+        <v>43406</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>6</v>
@@ -3850,28 +3493,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2">
-        <v>43413</v>
+        <v>43408</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>6</v>
@@ -3879,28 +3522,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H58" s="2">
-        <v>43421</v>
+        <v>43432</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>6</v>
@@ -3908,13 +3551,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>301</v>
@@ -3923,13 +3566,13 @@
         <v>302</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2">
-        <v>43427</v>
+        <v>43409</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>6</v>
@@ -3943,22 +3586,22 @@
         <v>304</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H60" s="2">
-        <v>43429</v>
+        <v>43427</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>6</v>
@@ -3966,28 +3609,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="2">
-        <v>43408</v>
+        <v>43430</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>6</v>
@@ -3995,25 +3638,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H62" s="2">
         <v>43431</v>
@@ -4024,28 +3667,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
-        <v>43409</v>
+        <v>43413</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>6</v>
@@ -4053,28 +3696,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H64" s="2">
-        <v>43402</v>
+        <v>43409</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>6</v>
@@ -4082,28 +3725,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H65" s="2">
-        <v>43431</v>
+        <v>43403</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>6</v>
@@ -4111,28 +3754,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H66" s="2">
-        <v>43410</v>
+        <v>43408</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>6</v>
@@ -4140,28 +3783,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H67" s="2">
-        <v>43402</v>
+        <v>43430</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>6</v>
@@ -4169,28 +3812,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H68" s="2">
-        <v>43403</v>
+        <v>43436</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>6</v>
@@ -4198,28 +3841,28 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H69" s="2">
-        <v>43405</v>
+        <v>43410</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>6</v>
@@ -4227,28 +3870,28 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H70" s="2">
-        <v>43432</v>
+        <v>43417</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>6</v>
@@ -4256,28 +3899,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H71" s="2">
-        <v>43407</v>
+        <v>43419</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>6</v>
@@ -4285,28 +3928,28 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="H72" s="2">
-        <v>43424</v>
+        <v>43409</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>6</v>
@@ -4314,28 +3957,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H73" s="2">
-        <v>43406</v>
+        <v>43425</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>6</v>
@@ -4343,28 +3986,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H74" s="2">
-        <v>43408</v>
+        <v>43407</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>6</v>
@@ -4372,28 +4015,28 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H75" s="2">
-        <v>43432</v>
+        <v>43424</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>6</v>
@@ -4401,28 +4044,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H76" s="2">
-        <v>43409</v>
+        <v>43420</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>6</v>
@@ -4430,28 +4073,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H77" s="2">
-        <v>43414</v>
+        <v>43420</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>6</v>
@@ -4459,814 +4102,118 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>481</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H78" s="2">
-        <v>43427</v>
+        <v>43436</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>6</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>391</v>
+        <v>486</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>392</v>
+        <v>487</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>393</v>
+        <v>488</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>394</v>
+        <v>482</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2">
-        <v>43405</v>
+        <v>43436</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>6</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>398</v>
+        <v>493</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>399</v>
+        <v>494</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2">
-        <v>43430</v>
+        <v>43436</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>6</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>401</v>
+        <v>498</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>300</v>
+        <v>499</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H81" s="2">
-        <v>43427</v>
+        <v>43436</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H82" s="2">
-        <v>43431</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="2">
-        <v>43413</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H84" s="2">
-        <v>43409</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H85" s="2">
-        <v>43403</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" s="2">
-        <v>43408</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="2">
-        <v>43406</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="2">
-        <v>43430</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H89" s="2">
-        <v>43436</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="2">
-        <v>43410</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="2">
-        <v>43417</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H92" s="2">
-        <v>43419</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H93" s="2">
-        <v>43429</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="2">
-        <v>43409</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="2">
-        <v>43410</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="2">
-        <v>43425</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="2">
-        <v>43407</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="2">
-        <v>43424</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="2">
-        <v>43420</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" s="2">
-        <v>43420</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="2">
-        <v>43436</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="2">
-        <v>43436</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="2">
-        <v>43436</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="2">
-        <v>43436</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H105" s="2">
-        <v>43438</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>602</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5277,7 +4224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -5293,13 +4240,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D1" s="2">
         <v>43404</v>
@@ -5310,13 +4257,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2">
         <v>43407</v>
@@ -5327,13 +4274,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2">
         <v>43398</v>
@@ -5344,1373 +4291,1373 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D4" s="2">
-        <v>43403</v>
+        <v>43423</v>
       </c>
       <c r="E4" s="2">
-        <v>43707</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D5" s="2">
-        <v>43423</v>
+        <v>43406</v>
       </c>
       <c r="E5" s="2">
-        <v>43727</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D6" s="2">
-        <v>43406</v>
+        <v>43403</v>
       </c>
       <c r="E6" s="2">
-        <v>43618</v>
+        <v>43768</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D7" s="2">
-        <v>43403</v>
+        <v>43423</v>
       </c>
       <c r="E7" s="2">
-        <v>43768</v>
+        <v>43665</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D8" s="2">
-        <v>43425</v>
+        <v>43415</v>
       </c>
       <c r="E8" s="2">
-        <v>43637</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D9" s="2">
-        <v>43423</v>
+        <v>43414</v>
       </c>
       <c r="E9" s="2">
-        <v>43665</v>
+        <v>43748</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>435</v>
+        <v>280</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D10" s="2">
-        <v>43415</v>
+        <v>43419</v>
       </c>
       <c r="E10" s="2">
-        <v>43719</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>382</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D11" s="2">
-        <v>43407</v>
+        <v>43426</v>
       </c>
       <c r="E11" s="2">
-        <v>43649</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D12" s="2">
-        <v>43414</v>
+        <v>43419</v>
       </c>
       <c r="E12" s="2">
-        <v>43748</v>
+        <v>43631</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>504</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D13" s="2">
-        <v>43419</v>
+        <v>43401</v>
       </c>
       <c r="E13" s="2">
-        <v>43723</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D14" s="2">
-        <v>43426</v>
+        <v>43403</v>
       </c>
       <c r="E14" s="2">
-        <v>43730</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D15" s="2">
-        <v>43409</v>
+        <v>43401</v>
       </c>
       <c r="E15" s="2">
-        <v>43743</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D16" s="2">
-        <v>43419</v>
+        <v>43410</v>
       </c>
       <c r="E16" s="2">
-        <v>43631</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D17" s="2">
-        <v>43401</v>
+        <v>43418</v>
       </c>
       <c r="E17" s="2">
-        <v>43674</v>
+        <v>43630</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D18" s="2">
-        <v>43403</v>
+        <v>43409</v>
       </c>
       <c r="E18" s="2">
-        <v>43646</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D19" s="2">
-        <v>43401</v>
+        <v>43398</v>
       </c>
       <c r="E19" s="2">
-        <v>43736</v>
+        <v>43610</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D20" s="2">
-        <v>43410</v>
+        <v>43400</v>
       </c>
       <c r="E20" s="2">
-        <v>43744</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D21" s="2">
-        <v>43418</v>
+        <v>43409</v>
       </c>
       <c r="E21" s="2">
-        <v>43630</v>
+        <v>43774</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D22" s="2">
-        <v>43409</v>
+        <v>43411</v>
       </c>
       <c r="E22" s="2">
-        <v>43743</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D23" s="2">
-        <v>43398</v>
+        <v>43413</v>
       </c>
       <c r="E23" s="2">
-        <v>43610</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>515</v>
+        <v>410</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D24" s="2">
-        <v>43400</v>
+        <v>43404</v>
       </c>
       <c r="E24" s="2">
-        <v>43735</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D25" s="2">
-        <v>43424</v>
+        <v>43404</v>
       </c>
       <c r="E25" s="2">
-        <v>43636</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>517</v>
+        <v>412</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D26" s="2">
-        <v>43395</v>
+        <v>43423</v>
       </c>
       <c r="E26" s="2">
-        <v>43607</v>
+        <v>43665</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D27" s="2">
-        <v>43409</v>
+        <v>43407</v>
       </c>
       <c r="E27" s="2">
-        <v>43774</v>
+        <v>43741</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D28" s="2">
-        <v>43411</v>
+        <v>43416</v>
       </c>
       <c r="E28" s="2">
-        <v>43684</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D29" s="2">
-        <v>43413</v>
+        <v>43408</v>
       </c>
       <c r="E29" s="2">
-        <v>43717</v>
+        <v>43589</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D30" s="2">
-        <v>43404</v>
+        <v>43423</v>
       </c>
       <c r="E30" s="2">
-        <v>43708</v>
+        <v>43635</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D31" s="2">
-        <v>43404</v>
+        <v>43409</v>
       </c>
       <c r="E31" s="2">
-        <v>43585</v>
+        <v>43621</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>523</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D32" s="2">
-        <v>43423</v>
+        <v>43419</v>
       </c>
       <c r="E32" s="2">
-        <v>43665</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D33" s="2">
-        <v>43407</v>
+        <v>43417</v>
       </c>
       <c r="E33" s="2">
-        <v>43741</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D34" s="2">
-        <v>43416</v>
+        <v>43422</v>
       </c>
       <c r="E34" s="2">
-        <v>43750</v>
+        <v>43634</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D35" s="2">
-        <v>43408</v>
+        <v>43405</v>
       </c>
       <c r="E35" s="2">
-        <v>43589</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D36" s="2">
-        <v>43429</v>
+        <v>43430</v>
       </c>
       <c r="E36" s="2">
-        <v>43641</v>
+        <v>43672</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D37" s="2">
-        <v>43423</v>
+        <v>43428</v>
       </c>
       <c r="E37" s="2">
-        <v>43635</v>
+        <v>43793</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D38" s="2">
-        <v>43409</v>
+        <v>43431</v>
       </c>
       <c r="E38" s="2">
-        <v>43621</v>
+        <v>43612</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>448</v>
+        <v>311</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D39" s="2">
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="E39" s="2">
-        <v>43692</v>
+        <v>43608</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D40" s="2">
-        <v>43399</v>
+        <v>43416</v>
       </c>
       <c r="E40" s="2">
-        <v>43611</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D41" s="2">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="E41" s="2">
-        <v>43598</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D42" s="2">
-        <v>43408</v>
+        <v>43430</v>
       </c>
       <c r="E42" s="2">
-        <v>43620</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D43" s="2">
-        <v>43422</v>
+        <v>43417</v>
       </c>
       <c r="E43" s="2">
-        <v>43634</v>
+        <v>43659</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D44" s="2">
-        <v>43405</v>
+        <v>43429</v>
       </c>
       <c r="E44" s="2">
-        <v>43647</v>
+        <v>43702</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D45" s="2">
-        <v>43430</v>
+        <v>43403</v>
       </c>
       <c r="E45" s="2">
-        <v>43672</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>396</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D46" s="2">
-        <v>43428</v>
+        <v>43426</v>
       </c>
       <c r="E46" s="2">
-        <v>43793</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D47" s="2">
-        <v>43431</v>
+        <v>43399</v>
       </c>
       <c r="E47" s="2">
-        <v>43612</v>
+        <v>43581</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D48" s="2">
-        <v>43427</v>
+        <v>43401</v>
       </c>
       <c r="E48" s="2">
-        <v>43608</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D49" s="2">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="E49" s="2">
-        <v>43628</v>
+        <v>43604</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>541</v>
+        <v>436</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D50" s="2">
-        <v>43410</v>
+        <v>43404</v>
       </c>
       <c r="E50" s="2">
-        <v>43714</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D51" s="2">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="E51" s="2">
-        <v>43734</v>
+        <v>43665</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>543</v>
+        <v>438</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D52" s="2">
-        <v>43417</v>
+        <v>43428</v>
       </c>
       <c r="E52" s="2">
-        <v>43659</v>
+        <v>43701</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D53" s="2">
         <v>43429</v>
       </c>
       <c r="E53" s="2">
-        <v>43702</v>
+        <v>43641</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>545</v>
+        <v>440</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D54" s="2">
-        <v>43403</v>
+        <v>43420</v>
       </c>
       <c r="E54" s="2">
-        <v>43676</v>
+        <v>43632</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>546</v>
+        <v>441</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D55" s="2">
-        <v>43426</v>
+        <v>43420</v>
       </c>
       <c r="E55" s="2">
-        <v>43638</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>379</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>547</v>
+        <v>442</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D56" s="2">
-        <v>43399</v>
+        <v>43415</v>
       </c>
       <c r="E56" s="2">
-        <v>43581</v>
+        <v>43657</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>548</v>
+        <v>443</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D57" s="2">
-        <v>43401</v>
+        <v>43411</v>
       </c>
       <c r="E57" s="2">
-        <v>43766</v>
+        <v>43776</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D58" s="2">
-        <v>43423</v>
+        <v>43402</v>
       </c>
       <c r="E58" s="2">
-        <v>43604</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>550</v>
+        <v>445</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D59" s="2">
-        <v>43404</v>
+        <v>43409</v>
       </c>
       <c r="E59" s="2">
-        <v>43769</v>
+        <v>43651</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>551</v>
+        <v>446</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D60" s="2">
-        <v>43423</v>
+        <v>43411</v>
       </c>
       <c r="E60" s="2">
-        <v>43665</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>552</v>
+        <v>447</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D61" s="2">
-        <v>43428</v>
+        <v>43431</v>
       </c>
       <c r="E61" s="2">
-        <v>43701</v>
+        <v>43643</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>431</v>
+        <v>243</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>553</v>
+        <v>448</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D62" s="2">
-        <v>43429</v>
+        <v>43406</v>
       </c>
       <c r="E62" s="2">
-        <v>43641</v>
+        <v>43771</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>387</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>554</v>
+        <v>449</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D63" s="2">
-        <v>43420</v>
+        <v>43424</v>
       </c>
       <c r="E63" s="2">
-        <v>43632</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>555</v>
+        <v>450</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D64" s="2">
-        <v>43420</v>
+        <v>43396</v>
       </c>
       <c r="E64" s="2">
-        <v>43693</v>
+        <v>43761</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>484</v>
+        <v>303</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>556</v>
+        <v>451</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="D65" s="2">
-        <v>43415</v>
+        <v>43422</v>
       </c>
       <c r="E65" s="2">
-        <v>43657</v>
+        <v>43634</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>557</v>
+        <v>452</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D66" s="2">
-        <v>43411</v>
+        <v>43401</v>
       </c>
       <c r="E66" s="2">
-        <v>43776</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>558</v>
+        <v>453</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D67" s="2">
-        <v>43402</v>
+        <v>43413</v>
       </c>
       <c r="E67" s="2">
-        <v>43737</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>559</v>
+        <v>454</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D68" s="2">
-        <v>43409</v>
+        <v>43428</v>
       </c>
       <c r="E68" s="2">
-        <v>43651</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>444</v>
+        <v>271</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>560</v>
+        <v>455</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D69" s="2">
-        <v>43411</v>
+        <v>43404</v>
       </c>
       <c r="E69" s="2">
-        <v>43715</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>373</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D70" s="2">
-        <v>43431</v>
+        <v>43414</v>
       </c>
       <c r="E70" s="2">
-        <v>43643</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D71" s="2">
-        <v>43406</v>
+        <v>43404</v>
       </c>
       <c r="E71" s="2">
-        <v>43771</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>563</v>
+        <v>458</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D72" s="2">
-        <v>43424</v>
+        <v>43422</v>
       </c>
       <c r="E72" s="2">
-        <v>43697</v>
+        <v>43634</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>418</v>
+        <v>243</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D73" s="2">
-        <v>43396</v>
+        <v>43406</v>
       </c>
       <c r="E73" s="2">
-        <v>43761</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D74" s="2">
-        <v>43422</v>
+        <v>43415</v>
       </c>
       <c r="E74" s="2">
-        <v>43634</v>
+        <v>43657</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D75" s="2">
-        <v>43401</v>
+        <v>43404</v>
       </c>
       <c r="E75" s="2">
-        <v>43766</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>567</v>
+        <v>462</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D76" s="2">
-        <v>43413</v>
+        <v>43403</v>
       </c>
       <c r="E76" s="2">
-        <v>43778</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>373</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>568</v>
+        <v>463</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D77" s="2">
-        <v>43428</v>
+        <v>43419</v>
       </c>
       <c r="E77" s="2">
-        <v>43609</v>
+        <v>43631</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>569</v>
+        <v>464</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="D78" s="2">
-        <v>43404</v>
+        <v>43420</v>
       </c>
       <c r="E78" s="2">
-        <v>43738</v>
+        <v>43754</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>570</v>
+        <v>465</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D79" s="2">
-        <v>43414</v>
+        <v>43397</v>
       </c>
       <c r="E79" s="2">
-        <v>43718</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="D80" s="2">
-        <v>43404</v>
+        <v>43427</v>
       </c>
       <c r="E80" s="2">
-        <v>43769</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D81" s="2">
-        <v>43422</v>
+        <v>43428</v>
       </c>
       <c r="E81" s="2">
-        <v>43634</v>
+        <v>43701</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>573</v>
+        <v>468</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D82" s="2">
-        <v>43406</v>
+        <v>43402</v>
       </c>
       <c r="E82" s="2">
-        <v>43618</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>574</v>
+        <v>469</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="D83" s="2">
-        <v>43415</v>
+        <v>43399</v>
       </c>
       <c r="E83" s="2">
-        <v>43657</v>
+        <v>43611</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D84" s="2">
         <v>43404</v>
@@ -6721,273 +5668,103 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="D85" s="2">
-        <v>43403</v>
+        <v>43406</v>
       </c>
       <c r="E85" s="2">
-        <v>43585</v>
+        <v>43771</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>577</v>
+        <v>472</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2">
-        <v>43419</v>
+        <v>43414</v>
       </c>
       <c r="E86" s="2">
-        <v>43631</v>
+        <v>43748</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>578</v>
+        <v>473</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2">
-        <v>43420</v>
+        <v>43426</v>
       </c>
       <c r="E87" s="2">
-        <v>43754</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D88" s="2">
-        <v>43397</v>
+        <v>43429</v>
       </c>
       <c r="E88" s="2">
-        <v>43732</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2">
-        <v>43427</v>
+        <v>43396</v>
       </c>
       <c r="E89" s="2">
-        <v>43731</v>
+        <v>43608</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2">
-        <v>43428</v>
+        <v>43418</v>
       </c>
       <c r="E90" s="2">
-        <v>43701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D91" s="2">
-        <v>43402</v>
-      </c>
-      <c r="E91" s="2">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D92" s="2">
-        <v>43399</v>
-      </c>
-      <c r="E92" s="2">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D93" s="2">
-        <v>43404</v>
-      </c>
-      <c r="E93" s="2">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D94" s="2">
-        <v>43406</v>
-      </c>
-      <c r="E94" s="2">
-        <v>43771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D95" s="2">
-        <v>43414</v>
-      </c>
-      <c r="E95" s="2">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D96" s="2">
-        <v>43426</v>
-      </c>
-      <c r="E96" s="2">
-        <v>43668</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D97" s="2">
-        <v>43415</v>
-      </c>
-      <c r="E97" s="2">
-        <v>43627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D98" s="2">
-        <v>43429</v>
-      </c>
-      <c r="E98" s="2">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D99" s="2">
-        <v>43396</v>
-      </c>
-      <c r="E99" s="2">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D100" s="2">
-        <v>43418</v>
-      </c>
-      <c r="E100" s="2">
         <v>43722</v>
       </c>
     </row>

--- a/project 8/bin/Debug/Opportunites.xlsx
+++ b/project 8/bin/Debug/Opportunites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1834">
   <si>
     <t>342000655</t>
   </si>
@@ -5468,6 +5468,60 @@
   </si>
   <si>
     <t>Callini</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>0546564871</t>
+  </si>
+  <si>
+    <t>New@Guy.com</t>
+  </si>
+  <si>
+    <t>New(10%)</t>
+  </si>
+  <si>
+    <t>Just a new guy being new</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>Dude</t>
+  </si>
+  <si>
+    <t>0546564872</t>
+  </si>
+  <si>
+    <t>New@dUde.com</t>
+  </si>
+  <si>
+    <t>Just a new dude being new</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>0541111111</t>
+  </si>
+  <si>
+    <t>a@j.com</t>
+  </si>
+  <si>
+    <t>Date, details about the last call</t>
   </si>
 </sst>
 </file>
@@ -5787,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L286"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD299"/>
@@ -14099,6 +14153,93 @@
       </c>
       <c r="I286" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H287" s="2">
+        <v>43444</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H288" s="2">
+        <v>43444</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H289" s="2">
+        <v>43444</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
